--- a/examples/timetable_school/spreadsheets/example-timetable_school-org.xlsx
+++ b/examples/timetable_school/spreadsheets/example-timetable_school-org.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\timetable_school\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1599D4CD-D6A1-45F5-802E-B4A509F41A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C458BA8E-C903-476A-9E48-F40AD2AC4E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="779" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
